--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P35_trail10 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P35_trail10 Features.xlsx
@@ -2526,7 +2526,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z9"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2538,28 +2538,26 @@
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
     <col width="21" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="21" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2580,115 +2578,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -2705,72 +2693,66 @@
         <v>2.536825474740569e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.01371452180264308</v>
+        <v>9.663289265676341e-07</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-0.9858649319680732</v>
+        <v>2.678455103352419e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>9.663289265676341e-07</v>
+        <v>-0.01355211738676892</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>2.678455103352419e-06</v>
+        <v>0.2017997187611208</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.01355211738676892</v>
+        <v>0.04088407663151055</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.2017997187611208</v>
+        <v>1.345380643735418</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.04088407663151055</v>
+        <v>1.368434510573509</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.266656987121721</v>
+        <v>3.948103167836346</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.368434510573509</v>
+        <v>4.347999404034995e-14</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.948103167836346</v>
+        <v>6475714.401332528</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>4.347999404034995e-14</v>
+        <v>1.254256684781047e-05</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>6475714.401332528</v>
+        <v>1.823328202374366</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.254256684781047e-05</v>
+        <v>0.0001299070681651251</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>1.823328202374366</v>
+        <v>8.576645428417056</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001299070681651251</v>
+        <v>1.178685463251218</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>8.576645428417056</v>
+        <v>0.009555814126017486</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.178685463251218</v>
+        <v>2.964064702307653</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.009555814126017486</v>
+        <v>0.9171594483681078</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.964064702307653</v>
+        <v>1.926237799037364</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9171594483681078</v>
+        <v>2</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.926237799037364</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.1756460472441179</v>
       </c>
     </row>
@@ -2785,72 +2767,66 @@
         <v>2.498248712353103e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>-0.06348062653794635</v>
+        <v>8.374824678723652e-07</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.035877186666646</v>
+        <v>2.676102010593828e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>8.374824678723652e-07</v>
+        <v>-0.00552972330895973</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2.676102010593828e-06</v>
+        <v>0.1940955235019846</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.00552972330895973</v>
+        <v>0.03769157299151898</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1940955235019846</v>
+        <v>1.346818806080856</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.03769157299151898</v>
+        <v>1.358297077453297</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.267782188220912</v>
+        <v>3.93073804051312</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.358297077453297</v>
+        <v>4.386501253538023e-14</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.93073804051312</v>
+        <v>6447476.156571721</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>4.386501253538023e-14</v>
+        <v>1.265125241804444e-05</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>6447476.156571721</v>
+        <v>1.823466324749201</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.265125241804444e-05</v>
+        <v>0.0001340770841485151</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>1.823466324749201</v>
+        <v>9.136760990911965</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001340770841485151</v>
+        <v>1.174352814979953</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>9.136760990911965</v>
+        <v>0.01119280880393679</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.174352814979953</v>
+        <v>2.783740434543298</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01119280880393679</v>
+        <v>0.9159469274519978</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.783740434543298</v>
+        <v>1.950732719849529</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9159469274519978</v>
+        <v>2</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.950732719849529</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.1817406081415825</v>
       </c>
     </row>
@@ -2865,72 +2841,66 @@
         <v>2.490116062843758e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>-0.07171121522908182</v>
+        <v>8.304860265549945e-07</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.038776020185367</v>
+        <v>2.675548919950522e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>8.304860265549945e-07</v>
+        <v>0.0008164283090909888</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>2.675548919950522e-06</v>
+        <v>0.1892598115347841</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.0008164283090909888</v>
+        <v>0.035814590878061</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1892598115347841</v>
+        <v>1.342265872222299</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.035814590878061</v>
+        <v>1.338100178621948</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.264237210266161</v>
+        <v>3.879283088983072</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.338100178621948</v>
+        <v>4.503638414441048e-14</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.879283088983072</v>
+        <v>6281011.158233111</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>4.503638414441048e-14</v>
+        <v>1.297899415244086e-05</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>6281011.158233111</v>
+        <v>1.776734947205314</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.297899415244086e-05</v>
+        <v>0.0001307029306900594</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>1.776734947205314</v>
+        <v>8.726838444643157</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001307029306900594</v>
+        <v>1.147832938833569</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>8.726838444643157</v>
+        <v>0.009954035792165878</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.147832938833569</v>
+        <v>2.868892720956356</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.009954035792165878</v>
+        <v>0.9120439456448233</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.868892720956356</v>
+        <v>1.954386911855937</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9120439456448233</v>
+        <v>2</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.954386911855937</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.1793163929559067</v>
       </c>
     </row>
@@ -2945,72 +2915,66 @@
         <v>2.501461069730745e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>-0.06353455670966486</v>
+        <v>8.304860265549945e-07</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.042508328329849</v>
+        <v>2.676424985550633e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>8.304860265549945e-07</v>
+        <v>0.006088273191195154</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>2.676424985550633e-06</v>
+        <v>0.1866741701129432</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.006088273191195154</v>
+        <v>0.03488119189270093</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1866741701129432</v>
+        <v>1.344983525284042</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.03488119189270093</v>
+        <v>1.308968268145029</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.268415629087429</v>
+        <v>3.807178956209675</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.308968268145029</v>
+        <v>4.675842550032597e-14</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.807178956209675</v>
+        <v>6042357.644986207</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>4.675842550032597e-14</v>
+        <v>1.347676496290118e-05</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>6042357.644986207</v>
+        <v>1.707154132029647</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.347676496290118e-05</v>
+        <v>0.0001284060663580443</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>1.707154132029647</v>
+        <v>8.176709422178668</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001284060663580443</v>
+        <v>1.425659581463302</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>8.176709422178668</v>
+        <v>0.008585046871623573</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.425659581463302</v>
+        <v>3.045110849339698</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.008585046871623573</v>
+        <v>0.9111111380820367</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>3.045110849339698</v>
+        <v>1.938319136283089</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9111111380820367</v>
+        <v>2</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.938319136283089</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.1706445389075904</v>
       </c>
     </row>
@@ -3025,72 +2989,66 @@
         <v>2.529567055423504e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>-0.04468037875441937</v>
+        <v>8.316145551712156e-07</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.051985405555565</v>
+        <v>2.678631637734056e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>8.316145551712156e-07</v>
+        <v>0.01158235316023296</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>2.678631637734056e-06</v>
+        <v>0.1846859105555127</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.01158235316023296</v>
+        <v>0.03423887471793514</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1846859105555127</v>
+        <v>1.315647531489413</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.03423887471793514</v>
+        <v>1.291102285628894</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.248988742411823</v>
+        <v>3.897104629508579</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.291102285628894</v>
+        <v>4.462542132587723e-14</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.897104629508579</v>
+        <v>6631487.526324999</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>4.462542132587723e-14</v>
+        <v>1.172424441012406e-05</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>6631487.526324999</v>
+        <v>1.962475499967625</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>1.172424441012406e-05</v>
+        <v>0.0001645617673308139</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>1.962475499967625</v>
+        <v>9.840848217188665</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001645617673308139</v>
+        <v>1.8687899528597</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>9.840848217188665</v>
+        <v>0.01593653899273876</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.8687899528597</v>
+        <v>3.059038494311546</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01593653899273876</v>
+        <v>0.9041403479778227</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>3.059038494311546</v>
+        <v>1.95424976656023</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9041403479778227</v>
+        <v>3</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.95424976656023</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.1587398977725165</v>
       </c>
     </row>
@@ -3105,72 +3063,66 @@
         <v>2.575245226853646e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>-0.01652013080203145</v>
+        <v>8.700312884300629e-07</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.064434036810202</v>
+        <v>2.682300577315148e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>8.700312884300629e-07</v>
+        <v>0.01698806502013928</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>2.682300577315148e-06</v>
+        <v>0.1803871239801818</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.01698806502013928</v>
+        <v>0.03282464099237427</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1803871239801818</v>
+        <v>1.302541110287542</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.03282464099237427</v>
+        <v>1.269243055131613</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.234944651875185</v>
+        <v>4.172966429100161</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.269243055131613</v>
+        <v>3.892034483629326e-14</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.172966429100161</v>
+        <v>7717898.641886234</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>3.892034483629326e-14</v>
+        <v>1.002309946968722e-05</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>7717898.641886234</v>
+        <v>2.318327682159691</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.002309946968722e-05</v>
+        <v>0.0002092370295383539</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>2.318327682159691</v>
+        <v>11.2622876575678</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0002092370295383539</v>
+        <v>1.720828267411907</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>11.2622876575678</v>
+        <v>0.02653944138473375</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.720828267411907</v>
+        <v>2.889807776179524</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.02653944138473375</v>
+        <v>0.8982404899411959</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.889807776179524</v>
+        <v>1.967774182669156</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.8982404899411959</v>
+        <v>3</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.967774182669156</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.1497504352947608</v>
       </c>
     </row>
@@ -3185,72 +3137,66 @@
         <v>2.632830487492927e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.009200551109850951</v>
+        <v>8.857468741127946e-07</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.086980920831475</v>
+        <v>2.687294849545608e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>8.857468741127946e-07</v>
+        <v>0.0211009858683527</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>2.687294849545608e-06</v>
+        <v>0.1740597673760856</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.0211009858683527</v>
+        <v>0.03073915685872452</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.1740597673760856</v>
+        <v>1.349618667538955</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.03073915685872452</v>
+        <v>1.445014228016122</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.27692266740507</v>
+        <v>3.727678980479046</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.445014228016122</v>
+        <v>3.344006159878739e-14</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3.727678980479046</v>
+        <v>7829535.08817853</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>3.344006159878739e-14</v>
+        <v>1.077207641345472e-05</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>7829535.08817853</v>
+        <v>2.049929938773746</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>1.077207641345472e-05</v>
+        <v>0.0001629423505248217</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>2.049929938773746</v>
+        <v>9.14773520892768</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001629423505248217</v>
+        <v>1.756206942773281</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>9.14773520892768</v>
+        <v>0.01363518852162298</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.756206942773281</v>
+        <v>3.005465569037102</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.01363518852162298</v>
+        <v>0.91009863008244</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.005465569037102</v>
+        <v>1.916922826435986</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.91009863008244</v>
+        <v>2</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.916922826435986</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.1508692843406731</v>
       </c>
     </row>
@@ -3265,72 +3211,66 @@
         <v>2.694075996650047e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.02088835016550858</v>
+        <v>8.868910602509904e-07</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.124887911055619</v>
+        <v>2.693327413801781e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>8.868910602509904e-07</v>
+        <v>0.02400744435822827</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>2.693327413801781e-06</v>
+        <v>0.1675977438445382</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.02400744435822827</v>
+        <v>0.02866281169771195</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1675977438445382</v>
+        <v>1.386828769798338</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.02866281169771195</v>
+        <v>1.277777158601793</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.304313675112003</v>
+        <v>4.012207027191314</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.277777158601793</v>
+        <v>2.844820569993223e-14</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.012207027191314</v>
+        <v>8382011.032627146</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>2.844820569993223e-14</v>
+        <v>1.104942108151715e-05</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>8382011.032627146</v>
+        <v>1.998717135528664</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>1.104942108151715e-05</v>
+        <v>0.0001468874356798822</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>1.998717135528664</v>
+        <v>9.239264819449719</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001468874356798822</v>
+        <v>1.188094191644783</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>9.239264819449719</v>
+        <v>0.01253890117513252</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.188094191644783</v>
+        <v>2.853199758588897</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01253890117513252</v>
+        <v>0.911499607205132</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.853199758588897</v>
+        <v>1.92469237464896</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.911499607205132</v>
+        <v>2</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.92469237464896</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.15912309223136</v>
       </c>
     </row>
@@ -3707,7 +3647,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.384958889343821</v>
+        <v>1.403978559652388</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.834018300706888</v>
@@ -3796,7 +3736,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.381512180568149</v>
+        <v>1.399488726205422</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.862888386705957</v>
@@ -3885,7 +3825,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.476042515197247</v>
+        <v>1.490654439917795</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.773953308350832</v>
@@ -3974,7 +3914,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.53272913833074</v>
+        <v>1.540825356165594</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.43082084773987</v>
@@ -4063,7 +4003,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.553090413957592</v>
+        <v>1.551990378756001</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.485807652484235</v>
@@ -4152,7 +4092,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.534188127060791</v>
+        <v>1.532905544398823</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.550556725504066</v>
@@ -4241,7 +4181,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.496006101445654</v>
+        <v>1.497499489983449</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.55006519662318</v>
@@ -4330,7 +4270,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.481416404753232</v>
+        <v>1.487662995111291</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.406946059337627</v>
@@ -4419,7 +4359,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.465128440131743</v>
+        <v>1.470398922103116</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.392051337556516</v>
@@ -4508,7 +4448,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.461611083687476</v>
+        <v>1.464073238122744</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.326580382651271</v>
@@ -4597,7 +4537,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.449021467050349</v>
+        <v>1.454039103984683</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.438396841394887</v>
@@ -4686,7 +4626,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.500913634463246</v>
+        <v>1.502998517025873</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.497040206422518</v>
@@ -4775,7 +4715,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.504696031661305</v>
+        <v>1.506938868898661</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.29066436400983</v>
@@ -4864,7 +4804,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.530923273722477</v>
+        <v>1.529583986208435</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.423934362033931</v>
@@ -4953,7 +4893,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.527380922061151</v>
+        <v>1.528218407151865</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.451259307573233</v>
@@ -5042,7 +4982,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.523068419964275</v>
+        <v>1.522563659198527</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.461127151305684</v>
@@ -5131,7 +5071,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.549696225885052</v>
+        <v>1.546565197307441</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.51039799017756</v>
@@ -5220,7 +5160,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.518019256908077</v>
+        <v>1.518243753748448</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.314113329346149</v>
@@ -5309,7 +5249,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.514738179676102</v>
+        <v>1.514520581737952</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.372670702847649</v>
@@ -5398,7 +5338,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.515498285819809</v>
+        <v>1.518205628613232</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.403571521390102</v>
@@ -5487,7 +5427,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.52016017100554</v>
+        <v>1.523923577029502</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.427301290411244</v>
@@ -5576,7 +5516,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.576160484635069</v>
+        <v>1.574164775518871</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.221171831540171</v>
@@ -5665,7 +5605,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.584140704488557</v>
+        <v>1.582092775180561</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.195280052983138</v>
@@ -5754,7 +5694,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.552847883817094</v>
+        <v>1.55689764351782</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.315552950536213</v>
@@ -5843,7 +5783,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.551502249995866</v>
+        <v>1.5576411265854</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.326392155742859</v>
@@ -5932,7 +5872,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.57027734330617</v>
+        <v>1.573143867143475</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.414714821801126</v>
@@ -6021,7 +5961,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.534949393034061</v>
+        <v>1.539089162822687</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.291022214914698</v>
@@ -6110,7 +6050,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.52369954820248</v>
+        <v>1.528476912596932</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.340297125640364</v>
@@ -6199,7 +6139,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.528800695028411</v>
+        <v>1.532219655961247</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.317254669303865</v>
@@ -6288,7 +6228,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.518794894019302</v>
+        <v>1.525537461663975</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.349614783344028</v>
@@ -6377,7 +6317,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.526007865568187</v>
+        <v>1.531873338554817</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.365181863198192</v>
@@ -6466,7 +6406,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.595792259831888</v>
+        <v>1.590281802582814</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.233530855752989</v>
@@ -6555,7 +6495,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.615950164582072</v>
+        <v>1.603902909334886</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.402204249310834</v>
@@ -6644,7 +6584,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.581149338616475</v>
+        <v>1.574617228637416</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.363183737650721</v>
@@ -6733,7 +6673,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.510748611833113</v>
+        <v>1.511532059268585</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.38299404133977</v>
@@ -6822,7 +6762,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.506965955701784</v>
+        <v>1.504803215494339</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.288848763715237</v>
@@ -6911,7 +6851,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.509107509579554</v>
+        <v>1.506988759899781</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.312385946794674</v>
@@ -7000,7 +6940,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.513677511665131</v>
+        <v>1.50943756005114</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.206503229700936</v>
@@ -7089,7 +7029,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.538952098831912</v>
+        <v>1.536143489066309</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.269728704967387</v>
@@ -7178,7 +7118,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.543301725375851</v>
+        <v>1.542249644556068</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.316606398830787</v>
@@ -7267,7 +7207,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.543397240564174</v>
+        <v>1.542898585644115</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.266490720502932</v>
@@ -7356,7 +7296,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.574866858255937</v>
+        <v>1.567793162791965</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.153375765097316</v>
@@ -7445,7 +7385,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.581906082511949</v>
+        <v>1.56937930555711</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.300322118879985</v>
@@ -7534,7 +7474,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.585068765952361</v>
+        <v>1.57290175386147</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.276739078212641</v>
@@ -7623,7 +7563,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.589743450256575</v>
+        <v>1.576612045843015</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.239597528927952</v>
@@ -7712,7 +7652,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.586920330045826</v>
+        <v>1.566707477058525</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.208211469872778</v>
@@ -7801,7 +7741,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.585405568880782</v>
+        <v>1.569770960008054</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.152879353703975</v>
@@ -7890,7 +7830,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.584058180720776</v>
+        <v>1.573237214285374</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.223623774769652</v>
@@ -7979,7 +7919,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.619764397378908</v>
+        <v>1.602529160578949</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.977330826479118</v>
@@ -8068,7 +8008,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.73451444722974</v>
+        <v>1.691704658058655</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.075214883193357</v>
@@ -8157,7 +8097,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.73181860521144</v>
+        <v>1.686174037801878</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.876371291314485</v>
@@ -8246,7 +8186,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.730287828550505</v>
+        <v>1.681652410789923</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.18361435616143</v>
@@ -8335,7 +8275,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.650078957075194</v>
+        <v>1.622002844778115</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.194829632907767</v>
@@ -8621,7 +8561,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.540831798005025</v>
+        <v>1.530827463118657</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.78408254162899</v>
@@ -8710,7 +8650,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.540435190292742</v>
+        <v>1.530731392131941</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.28750634696644</v>
@@ -8799,7 +8739,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.559919120139746</v>
+        <v>1.553365094208641</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.508625118933402</v>
@@ -8888,7 +8828,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.582097285363669</v>
+        <v>1.574514075603667</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.893431426477771</v>
@@ -8977,7 +8917,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.590807433387894</v>
+        <v>1.578587270699948</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.71797344813465</v>
@@ -9066,7 +9006,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.60512434946333</v>
+        <v>1.589988324004094</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.316525788278414</v>
@@ -9155,7 +9095,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.606037549866117</v>
+        <v>1.593261302008399</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.833618422319322</v>
@@ -9244,7 +9184,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.58772704637061</v>
+        <v>1.568442622015931</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.843151871427509</v>
@@ -9333,7 +9273,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.566192418273078</v>
+        <v>1.548219408336264</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.714210020020692</v>
@@ -9422,7 +9362,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.554375209418756</v>
+        <v>1.538463428669871</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.689113098145009</v>
@@ -9511,7 +9451,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.537011773197474</v>
+        <v>1.520545648980315</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.6995696961444</v>
@@ -9600,7 +9540,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.552092702590524</v>
+        <v>1.533805115935236</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.705086485994483</v>
@@ -9689,7 +9629,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.566698236480783</v>
+        <v>1.54939810259405</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.921370412281279</v>
@@ -9778,7 +9718,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.561767903586073</v>
+        <v>1.550085889606405</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.898887542596622</v>
@@ -9867,7 +9807,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.554223969393415</v>
+        <v>1.543890663452393</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.871008137881836</v>
@@ -9956,7 +9896,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.561609741923034</v>
+        <v>1.547560804582736</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.704289416291965</v>
@@ -10045,7 +9985,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.574028108256393</v>
+        <v>1.554312562116906</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.520301264863855</v>
@@ -10134,7 +10074,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.567914018590572</v>
+        <v>1.541642597299219</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.74397210795316</v>
@@ -10223,7 +10163,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.553124606759483</v>
+        <v>1.52367921532773</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.730160550196311</v>
@@ -10312,7 +10252,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.547794354075497</v>
+        <v>1.518937468646564</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.703282906571446</v>
@@ -10401,7 +10341,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.549175854821605</v>
+        <v>1.520486949387292</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.726503345843591</v>
@@ -10490,7 +10430,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.55886482301661</v>
+        <v>1.528942301478069</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.848631410443725</v>
@@ -10579,7 +10519,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.561378505611095</v>
+        <v>1.530658072221739</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.591740403649698</v>
@@ -10668,7 +10608,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.57134040424355</v>
+        <v>1.544345744152259</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.670136016493092</v>
@@ -10757,7 +10697,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.573491155656691</v>
+        <v>1.546041746504618</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.867982465418837</v>
@@ -10846,7 +10786,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.60681336030451</v>
+        <v>1.575022170962116</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.964906427735575</v>
@@ -10935,7 +10875,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.60312104080077</v>
+        <v>1.571782712972974</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.853391532205494</v>
@@ -11024,7 +10964,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.599761782516115</v>
+        <v>1.568901346374559</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.020708998088135</v>
@@ -11113,7 +11053,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.612468373898933</v>
+        <v>1.574439406754965</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.839007939618034</v>
@@ -11202,7 +11142,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.592905778148579</v>
+        <v>1.562241537099564</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.012047315386029</v>
@@ -11291,7 +11231,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.590925997829657</v>
+        <v>1.556409202461899</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.919365493220807</v>
@@ -11380,7 +11320,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.607617882216789</v>
+        <v>1.565520394910619</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.739021080923</v>
@@ -11469,7 +11409,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.613715603952992</v>
+        <v>1.573237167392429</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.851642360324497</v>
@@ -11558,7 +11498,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.616027724923997</v>
+        <v>1.569388567970686</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.983486736784665</v>
@@ -11647,7 +11587,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.611801788654836</v>
+        <v>1.570143710091527</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.984856392619887</v>
@@ -11736,7 +11676,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.605636598990591</v>
+        <v>1.565113689166602</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.858930224086786</v>
@@ -11825,7 +11765,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.592791863343775</v>
+        <v>1.556056186284731</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.04575763036695</v>
@@ -11914,7 +11854,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.597920452181876</v>
+        <v>1.555574209163096</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.840213594818162</v>
@@ -12003,7 +11943,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.603194248552511</v>
+        <v>1.558960911636121</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.076850431571479</v>
@@ -12092,7 +12032,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.614984711146294</v>
+        <v>1.572903146878494</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.047801547239034</v>
@@ -12181,7 +12121,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.62310381745444</v>
+        <v>1.580631721709274</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.914708529340702</v>
@@ -12270,7 +12210,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.622229750692878</v>
+        <v>1.577150572763201</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.870647901016962</v>
@@ -12359,7 +12299,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.613041057919241</v>
+        <v>1.561649658511074</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.892979953456031</v>
@@ -12448,7 +12388,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.61939033513089</v>
+        <v>1.570054787090219</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.871322245736442</v>
@@ -12537,7 +12477,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.637360566922569</v>
+        <v>1.580534504959386</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.108538493501254</v>
@@ -12626,7 +12566,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.632109547416414</v>
+        <v>1.577684864127315</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.144961146342057</v>
@@ -12715,7 +12655,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.630088270118514</v>
+        <v>1.578135452116232</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.783567156576736</v>
@@ -12804,7 +12744,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.62128049615041</v>
+        <v>1.575397953148609</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.016127759577427</v>
@@ -12893,7 +12833,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.608225984435266</v>
+        <v>1.567784254218497</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.747957124752725</v>
@@ -12982,7 +12922,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.63203784497778</v>
+        <v>1.586637685320815</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.74787767338375</v>
@@ -13071,7 +13011,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.639298726670559</v>
+        <v>1.583945391272452</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.580680239288979</v>
@@ -13160,7 +13100,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.670824881223988</v>
+        <v>1.609818176573058</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.750870989105781</v>
@@ -13249,7 +13189,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.673316834273233</v>
+        <v>1.61361817186125</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.962424314478606</v>
@@ -13535,7 +13475,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.63419734312541</v>
+        <v>1.621401575689434</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.857188905263452</v>
@@ -13624,7 +13564,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.626097497871905</v>
+        <v>1.612275978620327</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.693811703520788</v>
@@ -13713,7 +13653,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.647527742049209</v>
+        <v>1.634919877619071</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.329590407115188</v>
@@ -13802,7 +13742,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.658014731870902</v>
+        <v>1.641737121288126</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.783504213844678</v>
@@ -13891,7 +13831,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.665507640716911</v>
+        <v>1.638999992630195</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.640919857349522</v>
@@ -13980,7 +13920,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.661092409482523</v>
+        <v>1.628787436841977</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.329546750448382</v>
@@ -14069,7 +14009,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.652373643101061</v>
+        <v>1.625084651900356</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.770043171057656</v>
@@ -14158,7 +14098,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.644444023304532</v>
+        <v>1.617062280355482</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.989306261888518</v>
@@ -14247,7 +14187,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.6384047132212</v>
+        <v>1.613356851302081</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.662368817058063</v>
@@ -14336,7 +14276,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.629181821485056</v>
+        <v>1.607666741752387</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.732803869963738</v>
@@ -14425,7 +14365,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.617569764653221</v>
+        <v>1.593257327265122</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.609478588590352</v>
@@ -14514,7 +14454,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.627278804140931</v>
+        <v>1.59442272395548</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.704291146914339</v>
@@ -14603,7 +14543,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.641643679177001</v>
+        <v>1.610322457576128</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.884867304669481</v>
@@ -14692,7 +14632,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.643915760023891</v>
+        <v>1.614267471340995</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.685078845125195</v>
@@ -14781,7 +14721,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.636025106073139</v>
+        <v>1.607550465346526</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.788367702270465</v>
@@ -14870,7 +14810,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.644265627008149</v>
+        <v>1.616303843287086</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.665278204403852</v>
@@ -14959,7 +14899,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.661051494328606</v>
+        <v>1.629535292312807</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.629377860238491</v>
@@ -15048,7 +14988,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.656527788851587</v>
+        <v>1.620059960895713</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.799513753134977</v>
@@ -15137,7 +15077,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.651418005858351</v>
+        <v>1.611682223564721</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.718411142231015</v>
@@ -15226,7 +15166,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.649536159605167</v>
+        <v>1.607884458784968</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.747054229184413</v>
@@ -15315,7 +15255,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.657900994705185</v>
+        <v>1.619389922596089</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.094360306813148</v>
@@ -15404,7 +15344,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.668082752157153</v>
+        <v>1.625122533720821</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.173903347074302</v>
@@ -15493,7 +15433,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.674486711197989</v>
+        <v>1.631231238214721</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.749900778056789</v>
@@ -15582,7 +15522,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.671539938670161</v>
+        <v>1.630830935059998</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.966559176848687</v>
@@ -15671,7 +15611,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.66764613309978</v>
+        <v>1.627628989549497</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.159639778641536</v>
@@ -15760,7 +15700,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.684272244803918</v>
+        <v>1.640830935929828</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.290009193458045</v>
@@ -15849,7 +15789,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.688294177785235</v>
+        <v>1.645057053212298</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.422823191455961</v>
@@ -15938,7 +15878,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.685430732182036</v>
+        <v>1.643898265650169</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.510966358582319</v>
@@ -16027,7 +15967,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.69282256447577</v>
+        <v>1.644445174483751</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.118102341069568</v>
@@ -16116,7 +16056,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.675637278385935</v>
+        <v>1.634462815382008</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.593368323239905</v>
@@ -16205,7 +16145,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.669140765740862</v>
+        <v>1.626928216483144</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.505358149828125</v>
@@ -16294,7 +16234,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.682340472892641</v>
+        <v>1.626220821782235</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.089802416731202</v>
@@ -16383,7 +16323,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.683512389118745</v>
+        <v>1.626978579235098</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.633150520238787</v>
@@ -16472,7 +16412,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.684513223488426</v>
+        <v>1.630057194456703</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.446870503802177</v>
@@ -16561,7 +16501,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.672130553116558</v>
+        <v>1.622036546817585</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.337534613616012</v>
@@ -16650,7 +16590,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.666097701292141</v>
+        <v>1.616345991352817</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.579079370243694</v>
@@ -16739,7 +16679,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.667048050420412</v>
+        <v>1.622422419347225</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.325855034561258</v>
@@ -16828,7 +16768,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.67063015701827</v>
+        <v>1.624943147587894</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.537083693807566</v>
@@ -16917,7 +16857,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.68664957307433</v>
+        <v>1.639987862863242</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.73122746360979</v>
@@ -17006,7 +16946,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.692850615300564</v>
+        <v>1.647902846379103</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.730769771779006</v>
@@ -17095,7 +17035,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.698561015590149</v>
+        <v>1.651977284086156</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.304776874208585</v>
@@ -17184,7 +17124,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.704358982373583</v>
+        <v>1.661697378779718</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.362184121000782</v>
@@ -17273,7 +17213,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.704742243982929</v>
+        <v>1.659238286798151</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.505775035558229</v>
@@ -17362,7 +17302,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.704625585939491</v>
+        <v>1.661434146558852</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.644342542603825</v>
@@ -17451,7 +17391,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.723142318792208</v>
+        <v>1.674436349074843</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.655257692941291</v>
@@ -17540,7 +17480,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.718566687363014</v>
+        <v>1.674075377151702</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.514241078460708</v>
@@ -17629,7 +17569,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.717546482649665</v>
+        <v>1.677634674425177</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.37538951518373</v>
@@ -17718,7 +17658,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.720713088030918</v>
+        <v>1.688759242816935</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.712175237127548</v>
@@ -17807,7 +17747,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.714844966031141</v>
+        <v>1.687706288678105</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.384959075137791</v>
@@ -17896,7 +17836,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.741501368858248</v>
+        <v>1.714349633670851</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.263070371471023</v>
@@ -17985,7 +17925,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.749626359686292</v>
+        <v>1.713715512691777</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.027107918638664</v>
@@ -18074,7 +18014,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.756391338203876</v>
+        <v>1.713831915483118</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.560996489000211</v>
@@ -18163,7 +18103,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.754987028107981</v>
+        <v>1.710865768928762</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.629878486047796</v>
@@ -18449,7 +18389,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.524344970161022</v>
+        <v>1.512939602580018</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.137533984083162</v>
@@ -18538,7 +18478,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.549355253323452</v>
+        <v>1.537198373987161</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.036154851806762</v>
@@ -18627,7 +18567,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.61283259192632</v>
+        <v>1.58592210753119</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.310575591464927</v>
@@ -18716,7 +18656,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.655032489588561</v>
+        <v>1.615285670696319</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.530550330669391</v>
@@ -18805,7 +18745,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.674064783855574</v>
+        <v>1.622679256677102</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.598462949258217</v>
@@ -18894,7 +18834,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.677880248229941</v>
+        <v>1.635279255236539</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.262906313742707</v>
@@ -18983,7 +18923,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.678532011556744</v>
+        <v>1.634373332865536</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.225779903968849</v>
@@ -19072,7 +19012,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.673327372022708</v>
+        <v>1.63534871402798</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.385124634092874</v>
@@ -19161,7 +19101,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.660232642698766</v>
+        <v>1.624613467075559</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.393751085309863</v>
@@ -19250,7 +19190,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.657609129928546</v>
+        <v>1.623056411923792</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.782189908137063</v>
@@ -19339,7 +19279,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.642647248898343</v>
+        <v>1.609087881106365</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.216092375142965</v>
@@ -19428,7 +19368,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.651394945749443</v>
+        <v>1.617953165325819</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.399400363219097</v>
@@ -19517,7 +19457,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.656821505475607</v>
+        <v>1.625028519704603</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.352412973227568</v>
@@ -19606,7 +19546,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.644940001977761</v>
+        <v>1.621844925953929</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.404222921350705</v>
@@ -19695,7 +19635,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.636610153061831</v>
+        <v>1.614215050232629</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.228068160689608</v>
@@ -19784,7 +19724,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.649875815387829</v>
+        <v>1.62338262785958</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.428091781351671</v>
@@ -19873,7 +19813,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.661667814764035</v>
+        <v>1.633749446227021</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.952053176539323</v>
@@ -19962,7 +19902,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.665393111883081</v>
+        <v>1.633964867430906</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.116718404880068</v>
@@ -20051,7 +19991,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.66509111204745</v>
+        <v>1.632800521894686</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.44276267067526</v>
@@ -20140,7 +20080,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.666534947244892</v>
+        <v>1.635295666915059</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.346671583180286</v>
@@ -20229,7 +20169,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.655262595849631</v>
+        <v>1.630586358777356</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.2193727458309</v>
@@ -20318,7 +20258,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.666080703827006</v>
+        <v>1.633621813024924</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.357128301528167</v>
@@ -20407,7 +20347,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.674796072078302</v>
+        <v>1.640052822304726</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.169573166295885</v>
@@ -20496,7 +20436,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.676909542572413</v>
+        <v>1.649534884415493</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.333962830409592</v>
@@ -20585,7 +20525,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.677413797832446</v>
+        <v>1.644928497256574</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.460566278469621</v>
@@ -20674,7 +20614,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.709192969487176</v>
+        <v>1.675190213825104</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.61661565958173</v>
@@ -20763,7 +20703,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.706920519177302</v>
+        <v>1.672101311961597</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.616006863996896</v>
@@ -20852,7 +20792,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.712065012450058</v>
+        <v>1.671914491769992</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.674206440028718</v>
@@ -20941,7 +20881,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.72051836029512</v>
+        <v>1.675053229727809</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.390361122655574</v>
@@ -21030,7 +20970,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.711470128409714</v>
+        <v>1.673634363801269</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.675885256279542</v>
@@ -21119,7 +21059,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.706545147771644</v>
+        <v>1.668280399709376</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.344609346654746</v>
@@ -21208,7 +21148,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.715575534754096</v>
+        <v>1.67026325698572</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.054630845189982</v>
@@ -21297,7 +21237,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.728905794923547</v>
+        <v>1.67470239336777</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.24343232159846</v>
@@ -21386,7 +21326,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.727173391592946</v>
+        <v>1.674075868585286</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.311699500886043</v>
@@ -21475,7 +21415,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.723075697458241</v>
+        <v>1.669377097118835</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.089209874746059</v>
@@ -21564,7 +21504,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.717354986676403</v>
+        <v>1.661538248325899</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.048141259814768</v>
@@ -21653,7 +21593,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.703320465235561</v>
+        <v>1.655716535816919</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.048793901114977</v>
@@ -21742,7 +21682,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.714643627248094</v>
+        <v>1.658557266891432</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.989245782596712</v>
@@ -21831,7 +21771,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.71922891615033</v>
+        <v>1.665970594915202</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.379502690217452</v>
@@ -21920,7 +21860,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.728836665985078</v>
+        <v>1.675799615453723</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.322791762010779</v>
@@ -22009,7 +21949,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.730161535800876</v>
+        <v>1.676706694374522</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.031132105473293</v>
@@ -22098,7 +22038,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.729385088028867</v>
+        <v>1.679472579244474</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.331883047215621</v>
@@ -22187,7 +22127,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.714887078976257</v>
+        <v>1.6668997838702</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.095037453671842</v>
@@ -22276,7 +22216,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.720571641978612</v>
+        <v>1.668919561073987</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.984922546281091</v>
@@ -22365,7 +22305,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.731643563325879</v>
+        <v>1.670338484751913</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.267512669846209</v>
@@ -22454,7 +22394,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.728083546578002</v>
+        <v>1.666559047263357</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.24282103211965</v>
@@ -22543,7 +22483,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.725478745320303</v>
+        <v>1.671466421792899</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.135782155942811</v>
@@ -22632,7 +22572,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.713785366230414</v>
+        <v>1.674775538218026</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.49047533533338</v>
@@ -22721,7 +22661,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.704978535384273</v>
+        <v>1.665096374563329</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.341244437331782</v>
@@ -22810,7 +22750,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.722166613837559</v>
+        <v>1.681958004927808</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.35615266745436</v>
@@ -22899,7 +22839,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.72455813939156</v>
+        <v>1.679194367048014</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.037125916357505</v>
@@ -22988,7 +22928,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.736338591268883</v>
+        <v>1.686939890540772</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.385161649054917</v>
@@ -23077,7 +23017,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.734477792559048</v>
+        <v>1.686232148832572</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.468242914625206</v>
@@ -23363,7 +23303,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.438527019832591</v>
+        <v>1.436814095386029</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.218648827173541</v>
@@ -23452,7 +23392,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.454759754688679</v>
+        <v>1.447478407505054</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.068418846975846</v>
@@ -23541,7 +23481,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.469176724546579</v>
+        <v>1.462454848651474</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.021619282263249</v>
@@ -23630,7 +23570,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.486423351132584</v>
+        <v>1.480123683855655</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.05835319807273</v>
@@ -23719,7 +23659,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.523898348315969</v>
+        <v>1.498217610077029</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>1.749385293830924</v>
@@ -23808,7 +23748,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.587904560641576</v>
+        <v>1.55523966871521</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.192288204753172</v>
@@ -23897,7 +23837,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.577404927774756</v>
+        <v>1.546042377598311</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.159499402555821</v>
@@ -23986,7 +23926,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.579802377094573</v>
+        <v>1.542314854698173</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.678986713250622</v>
@@ -24075,7 +24015,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.566804519646899</v>
+        <v>1.529035500879682</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.166288286992411</v>
@@ -24164,7 +24104,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.559031581149389</v>
+        <v>1.529502942614698</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.010420977331123</v>
@@ -24253,7 +24193,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.536473126833853</v>
+        <v>1.508988686700619</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.943281033586339</v>
@@ -24342,7 +24282,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.547129616302609</v>
+        <v>1.517405901261866</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.96663685033641</v>
@@ -24431,7 +24371,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.550945677362488</v>
+        <v>1.523862556166842</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.697727232414297</v>
@@ -24520,7 +24460,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.538140814293758</v>
+        <v>1.516527582032864</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.865673569826888</v>
@@ -24609,7 +24549,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.515485371352189</v>
+        <v>1.500596213938058</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.8932565825888</v>
@@ -24698,7 +24638,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.530146629128242</v>
+        <v>1.508045877051572</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.899604234380141</v>
@@ -24787,7 +24727,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.547252626716152</v>
+        <v>1.525589013878192</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.633737502795907</v>
@@ -24876,7 +24816,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.541639256276937</v>
+        <v>1.513876339365785</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.903744445997706</v>
@@ -24965,7 +24905,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.541587655715384</v>
+        <v>1.508047132661376</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.778900770360032</v>
@@ -25054,7 +24994,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.541063173963404</v>
+        <v>1.50896322195984</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.833750652724913</v>
@@ -25143,7 +25083,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.524271990825323</v>
+        <v>1.494566891797313</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.884435652336573</v>
@@ -25232,7 +25172,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.541342644392495</v>
+        <v>1.508170424036503</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.776321561927357</v>
@@ -25321,7 +25261,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.550923150224055</v>
+        <v>1.516852412617253</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.51644613548089</v>
@@ -25410,7 +25350,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.545430560301328</v>
+        <v>1.517566645369844</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.650907292813152</v>
@@ -25499,7 +25439,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.546042835492978</v>
+        <v>1.50469426724499</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.745971012686736</v>
@@ -25588,7 +25528,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.570114227266698</v>
+        <v>1.532082665289119</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.232223336385571</v>
@@ -25677,7 +25617,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.569484333042351</v>
+        <v>1.528887813790184</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.156850388013477</v>
@@ -25766,7 +25706,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.572555497435911</v>
+        <v>1.53141914444674</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.070922338220714</v>
@@ -25855,7 +25795,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.579745907635338</v>
+        <v>1.531909933236984</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.830737264539253</v>
@@ -25944,7 +25884,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.571842917017403</v>
+        <v>1.529694538252886</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.187540335127979</v>
@@ -26033,7 +25973,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.564691839916792</v>
+        <v>1.5225908588152</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.174663551181649</v>
@@ -26122,7 +26062,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.576862288285917</v>
+        <v>1.518693347022377</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.840490245009311</v>
@@ -26211,7 +26151,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.587943141233061</v>
+        <v>1.528761384702864</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.165690640185672</v>
@@ -26300,7 +26240,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.579440066993782</v>
+        <v>1.517548873266441</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.239490087231149</v>
@@ -26389,7 +26329,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.573696013181168</v>
+        <v>1.511174352121626</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.807184386730766</v>
@@ -26478,7 +26418,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.565203246084441</v>
+        <v>1.505657359440551</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.883822636510598</v>
@@ -26567,7 +26507,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.534754690531483</v>
+        <v>1.485174703778209</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.736993831109534</v>
@@ -26656,7 +26596,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.537571297946354</v>
+        <v>1.484108103854512</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.945974288791879</v>
@@ -26745,7 +26685,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.549354382427194</v>
+        <v>1.496339380237334</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.840410159200053</v>
@@ -26834,7 +26774,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.556498699208986</v>
+        <v>1.512536336818902</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.825808127540415</v>
@@ -26923,7 +26863,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.558642357178008</v>
+        <v>1.509675438226061</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.78860361392439</v>
@@ -27012,7 +26952,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.560413376480798</v>
+        <v>1.513815594804463</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.701799264920798</v>
@@ -27101,7 +27041,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.557244665168372</v>
+        <v>1.510639566671425</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.795658452200569</v>
@@ -27190,7 +27130,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.561124727062657</v>
+        <v>1.514938103083716</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.780727515770521</v>
@@ -27279,7 +27219,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.584129504996588</v>
+        <v>1.527858565069144</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.618602435572433</v>
@@ -27368,7 +27308,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.581045604604653</v>
+        <v>1.524926278308659</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.708408712015541</v>
@@ -27457,7 +27397,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.577176363412821</v>
+        <v>1.527489927438778</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.54881284282215</v>
@@ -27546,7 +27486,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.57244115442707</v>
+        <v>1.53001461942246</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.653923370192863</v>
@@ -27635,7 +27575,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.569166632587352</v>
+        <v>1.531009229036346</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.544722163394964</v>
@@ -27724,7 +27664,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.587634576087697</v>
+        <v>1.548787306265994</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.405393806020049</v>
@@ -27813,7 +27753,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.594923711263013</v>
+        <v>1.538337595271916</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.528046299292191</v>
@@ -27902,7 +27842,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.629066444690427</v>
+        <v>1.562006309431553</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.068499445129666</v>
@@ -27991,7 +27931,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.636284305108004</v>
+        <v>1.5718468452024</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.008493436305689</v>
@@ -28277,7 +28217,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.487468798363484</v>
+        <v>1.482863018226353</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.176551818705641</v>
@@ -28366,7 +28306,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.494676221962683</v>
+        <v>1.489791851267816</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.003467502981388</v>
@@ -28455,7 +28395,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.516307837432888</v>
+        <v>1.514797167241465</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.110200919281577</v>
@@ -28544,7 +28484,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.537444668831331</v>
+        <v>1.532087804319264</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.619972448481129</v>
@@ -28633,7 +28573,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.531880704786679</v>
+        <v>1.527377451579163</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.468619910030987</v>
@@ -28722,7 +28662,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.535968407181293</v>
+        <v>1.528116484975176</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.158094248294618</v>
@@ -28811,7 +28751,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.501124194276544</v>
+        <v>1.494207367733842</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.340082876088029</v>
@@ -28900,7 +28840,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.490940569304994</v>
+        <v>1.487024088106125</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.368389240428419</v>
@@ -28989,7 +28929,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.47592791476768</v>
+        <v>1.469972017806992</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.308107286793227</v>
@@ -29078,7 +29018,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.476123470945307</v>
+        <v>1.472316352058745</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.404511297573655</v>
@@ -29167,7 +29107,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.47226060535071</v>
+        <v>1.472174701189398</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.469517089788565</v>
@@ -29256,7 +29196,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.526177675015088</v>
+        <v>1.523465575636017</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.392421651575216</v>
@@ -29345,7 +29285,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.537938836600334</v>
+        <v>1.535206196628612</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.264762656245925</v>
@@ -29434,7 +29374,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.569101501945621</v>
+        <v>1.560935008485297</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.3396838340678</v>
@@ -29523,7 +29463,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.563512351902091</v>
+        <v>1.556050268488681</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.361487516755275</v>
@@ -29612,7 +29552,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.562878678738782</v>
+        <v>1.556166893550195</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.445541066977508</v>
@@ -29701,7 +29641,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.585018172336264</v>
+        <v>1.582219248382762</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.354410272503458</v>
@@ -29790,7 +29730,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.563149605373855</v>
+        <v>1.559783033569814</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.301396073954045</v>
@@ -29879,7 +29819,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.565697200092022</v>
+        <v>1.562039774692249</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.401071777483141</v>
@@ -29968,7 +29908,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.56097809179576</v>
+        <v>1.556358041169683</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.321534503317709</v>
@@ -30057,7 +29997,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.549855930232335</v>
+        <v>1.549463113164612</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.339698901039847</v>
@@ -30146,7 +30086,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.610152749485012</v>
+        <v>1.606938591194326</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.264269446034159</v>
@@ -30235,7 +30175,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.611387295444812</v>
+        <v>1.609868380033943</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.310101463289359</v>
@@ -30324,7 +30264,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.577156215350348</v>
+        <v>1.585827562794041</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.401042514174759</v>
@@ -30413,7 +30353,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.585751560050053</v>
+        <v>1.594391480519357</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.434375458080397</v>
@@ -30502,7 +30442,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.595691996842592</v>
+        <v>1.598616424583733</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.354842119920688</v>
@@ -30591,7 +30531,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.547956953277703</v>
+        <v>1.55278271778838</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.168815080269863</v>
@@ -30680,7 +30620,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.540314512232703</v>
+        <v>1.548921268998668</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.207242484824355</v>
@@ -30769,7 +30709,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.538466375014279</v>
+        <v>1.547006642451878</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.27657599418577</v>
@@ -30858,7 +30798,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.542865421601292</v>
+        <v>1.546812797767293</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.203049879811967</v>
@@ -30947,7 +30887,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.543905226590676</v>
+        <v>1.54355964678771</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.219336110992165</v>
@@ -31036,7 +30976,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.605006661654941</v>
+        <v>1.593642602176698</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.195106569150556</v>
@@ -31125,7 +31065,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.633616918191739</v>
+        <v>1.618635288374244</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.191611852976962</v>
@@ -31214,7 +31154,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.593242959287338</v>
+        <v>1.583971753703376</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.272322424306501</v>
@@ -31303,7 +31243,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.529923111568156</v>
+        <v>1.529423566667161</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.371293569074249</v>
@@ -31392,7 +31332,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.530008274834641</v>
+        <v>1.528609653858202</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.271652142801479</v>
@@ -31481,7 +31421,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.530478179215779</v>
+        <v>1.528372813272711</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.299320362499322</v>
@@ -31570,7 +31510,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.541593740797069</v>
+        <v>1.537450050760034</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.155345406100645</v>
@@ -31659,7 +31599,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.568485751904268</v>
+        <v>1.560380054952051</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.239547900581866</v>
@@ -31748,7 +31688,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.569079843835526</v>
+        <v>1.558362450079805</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.31195040661874</v>
@@ -31837,7 +31777,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.567109305416708</v>
+        <v>1.561066626787269</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.205784392636052</v>
@@ -31926,7 +31866,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.614974614800698</v>
+        <v>1.599538815219116</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.204768715260002</v>
@@ -32015,7 +31955,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.619024489714389</v>
+        <v>1.601965491510118</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.369550435138681</v>
@@ -32104,7 +32044,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.628929817406748</v>
+        <v>1.611150280340839</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.330861791029766</v>
@@ -32193,7 +32133,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.623220926131364</v>
+        <v>1.608034443699778</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.370818936298122</v>
@@ -32282,7 +32222,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.622109724041374</v>
+        <v>1.609449154859693</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.306952756776656</v>
@@ -32371,7 +32311,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.621469216063084</v>
+        <v>1.608587793807123</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.355936567053236</v>
@@ -32460,7 +32400,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.611785567743342</v>
+        <v>1.597980515485058</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.254724257483086</v>
@@ -32549,7 +32489,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.657405501228398</v>
+        <v>1.634411938381046</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.037860020731247</v>
@@ -32638,7 +32578,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.776935347519546</v>
+        <v>1.728913680161409</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.162960972368065</v>
@@ -32727,7 +32667,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.776196660661151</v>
+        <v>1.723479622690765</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.895379993015314</v>
@@ -32816,7 +32756,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.786810429345395</v>
+        <v>1.727825821657687</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.188585274591825</v>
@@ -32905,7 +32845,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.693023103307139</v>
+        <v>1.656960845930161</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.221494797639874</v>
